--- a/tests/integration/res/ai-and-nanotech-applicant_types.xlsx
+++ b/tests/integration/res/ai-and-nanotech-applicant_types.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Number of Simple Patent Families (Fractionally Counted)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Mean Citation Score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Mean Market Coverage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Mean Patent Power</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Simple Patent Families (Fractionally Counted)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -498,278 +498,274 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>American Academia</t>
+          <t>American Company</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>108.6190476190476</v>
       </c>
       <c r="C2" t="n">
-        <v>0.844469512195122</v>
+        <v>1.508156493155883</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8783264879331122</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>1.685636867557182</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>48.78571428571428</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>American Company</t>
+          <t>Chinese Academia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2777265279625332</v>
+        <v>14.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8783264879331122</v>
+        <v>3.460975272827739</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3041619866418127</v>
+        <v>0.8704828448814993</v>
       </c>
       <c r="E3" t="n">
-        <v>108.6190476190476</v>
+        <v>5.632638366140838</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>24.83333333333334</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>13.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>48.78571428571428</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>American Individual</t>
+          <t>American Unknown</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4875230677137017</v>
+        <v>12.97619047619048</v>
       </c>
       <c r="C4" t="n">
-        <v>1.183259064158689</v>
+        <v>0.4986248979774404</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5801308832035984</v>
+        <v>1.167296911425747</v>
       </c>
       <c r="E4" t="n">
-        <v>5.571428571428571</v>
+        <v>0.8891298138547087</v>
       </c>
       <c r="F4" t="n">
-        <v>1.333333333333333</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5714285714285712</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>American Unknown</t>
+          <t>American Academia</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1927570327035448</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.167296911425747</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.3642278062882242</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.97619047619048</v>
-      </c>
+        <v>0.8444695121951219</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.666666666666666</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.642857142857143</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Chinese Academia</t>
+          <t>Rest of World Company</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7163659896414943</v>
+        <v>8.678571428571427</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8704828448814993</v>
+        <v>0.4471960088958346</v>
       </c>
       <c r="D6" t="n">
-        <v>1.148570953475631</v>
+        <v>1.019136886479976</v>
       </c>
       <c r="E6" t="n">
-        <v>14.5</v>
+        <v>0.6043357957652428</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.178571428571428</v>
+      </c>
+      <c r="K6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Chinese Company</t>
+          <t>Rest of World Academia</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.464390243902439</v>
+        <v>0.398040028278199</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.955961088187032</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>0.3863485658901991</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Chinese Individual</t>
+          <t>American Individual</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6015037593984962</v>
+        <v>5.571428571428569</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>1.24074753813668</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6015037593984962</v>
+        <v>1.183259064158689</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1666666666666667</v>
+        <v>1.14453947102766</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.5714285714285712</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -778,41 +774,41 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Chinese Unknown</t>
+          <t>Rest of World Unknown</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4.535714285714285</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.3465573836518517</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.8118072237187909</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.4119509216556739</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.035714285714286</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -822,16 +818,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.089130306080161</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>0.178260612160322</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.086864759224515</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.0648430941293788</v>
-      </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0.1296861882587576</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -858,38 +854,38 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>EU-27 Company</t>
+          <t>Rest of World Individual</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.535714285714286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7</v>
+        <v>0.3372012708937698</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.114587067498582</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.7858700265162617</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.035714285714286</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.7857142857142856</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -898,155 +894,143 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>EU-27 Unknown</t>
+          <t>Chinese Company</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1203007518796992</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9729999999999999</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>0.1170526315789474</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+        <v>0.464390243902439</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rest of World Academia</t>
+          <t>Chinese Unknown</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1796230045814573</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.955961088187032</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0.1818829559848613</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rest of World Company</t>
+          <t>EU-27 Company</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2002527461845047</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.019136886479976</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.259696277802673</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.678571428571429</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.4285714285714284</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.178571428571428</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rest of World Individual</t>
+          <t>EU-27 Unknown</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2053990497209881</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.114587067498582</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4042543276292928</v>
+        <v>0.9729999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>1.535714285714286</v>
+        <v>0.1170526315789474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2857142857142856</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.035714285714286</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7857142857142856</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1058,69 +1042,69 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rest of World Unknown</t>
+          <t>Unknown Unknown</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2510494432753572</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8118072237187908</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2984211400970236</v>
+        <v>1.238048780487805</v>
       </c>
       <c r="E16" t="n">
-        <v>4.535714285714286</v>
+        <v>0.2924524678317649</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2857142857142856</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.035714285714286</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Unknown Unknown</t>
+          <t>Chinese Individual</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2362204724409449</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>1.238048780487805</v>
+        <v>0.6015037593984962</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2924524678317649</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6015037593984962</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>

--- a/tests/integration/res/ai-and-nanotech-applicant_types.xlsx
+++ b/tests/integration/res/ai-and-nanotech-applicant_types.xlsx
@@ -510,28 +510,28 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>109.6190476190476</v>
+        <v>108.6190476190476</v>
       </c>
       <c r="C2">
         <v>210</v>
       </c>
       <c r="D2">
-        <v>1.508156493155883</v>
+        <v>1.518999569397678</v>
       </c>
       <c r="E2">
-        <v>0.876699704159613</v>
+        <v>0.8841288210989252</v>
       </c>
       <c r="F2">
-        <v>1.685636867557182</v>
+        <v>1.694791540874925</v>
       </c>
       <c r="G2">
         <v>2.333333333333333</v>
       </c>
       <c r="H2">
-        <v>24.83333333333334</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>16.5</v>
